--- a/biology/Botanique/Jardin_Catherine-Labouré/Jardin_Catherine-Labouré.xlsx
+++ b/biology/Botanique/Jardin_Catherine-Labouré/Jardin_Catherine-Labouré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Catherine-Labour%C3%A9</t>
+          <t>Jardin_Catherine-Labouré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Catherine-Labouré est un espace vert du 7e arrondissement de Paris, dans les quartiers Invalides, École-Militaire et Saint-Thomas-d'Aquin.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Catherine-Labour%C3%A9</t>
+          <t>Jardin_Catherine-Labouré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par le 29, rue de Babylone.
 Il est desservi par les lignes 10 et 12 à la station Sèvres - Babylone.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Catherine-Labour%C3%A9</t>
+          <t>Jardin_Catherine-Labouré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom perpétue le souvenir de Catherine Labouré (1806-1876), jeune religieuse ayant eu des apparitions de la Vierge au XIXe siècle en la chapelle jouxtant le jardin ; c'est aussi en relation avec les apparitions célèbres reçues par Catherine Labouré que cette chapelle a reçu le nom de chapelle Notre-Dame-de-la-Médaille-miraculeuse[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom perpétue le souvenir de Catherine Labouré (1806-1876), jeune religieuse ayant eu des apparitions de la Vierge au XIXe siècle en la chapelle jouxtant le jardin ; c'est aussi en relation avec les apparitions célèbres reçues par Catherine Labouré que cette chapelle a reçu le nom de chapelle Notre-Dame-de-la-Médaille-miraculeuse,.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_Catherine-Labour%C3%A9</t>
+          <t>Jardin_Catherine-Labouré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin a été ouvert au public à la suite d'une convention passée en 1977 entre la Compagnie des Filles de la Charité et la Ville de Paris.
-Caché derrière ses hauts murs, cet ancien potager des religieuses est ombragé par une tonnelle, planté de vignes et de nombreux arbres fruitiers. On y trouve un potager et des jeux pour enfants[2].
+Caché derrière ses hauts murs, cet ancien potager des religieuses est ombragé par une tonnelle, planté de vignes et de nombreux arbres fruitiers. On y trouve un potager et des jeux pour enfants.
 			Potager.
 Depuis les années 2000, le jardin permet d'accéder, au fond, à l'ancien jardin du potager de l'hospice des Incurables, devenu hôpital Laennec.
 </t>
